--- a/xlsx/a69_f46_bUPPachuca.xlsx
+++ b/xlsx/a69_f46_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\Vo. Bo. #1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\S. ACADÉMICA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -165,13 +165,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -219,32 +217,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -529,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +540,7 @@
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="71" customWidth="1"/>
+    <col min="11" max="11" width="77.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -554,38 +549,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -658,19 +653,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -707,30 +702,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>2020</v>
       </c>
-      <c r="B8" s="3">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4" t="s">
+      <c r="B8" s="10">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="10">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="3">
-        <v>44114</v>
-      </c>
-      <c r="J8" s="3">
-        <v>44114</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="I8" s="10">
+        <v>44196</v>
+      </c>
+      <c r="J8" s="10">
+        <v>44196</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -745,12 +740,12 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D198">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -758,17 +753,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
     </row>

--- a/xlsx/a69_f46_bUPPachuca.xlsx
+++ b/xlsx/a69_f46_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\S. ACADÉMICA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -142,10 +142,10 @@
     <t>Opinión</t>
   </si>
   <si>
-    <t>Abogado General (UPP)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Conforme a lo establecido en Capítulo V del Decreto Vigente de la Universidad, relativo al Consejo Consultivo, este es un Órgano Colegiado con las funciones de asesorar al Rector en materia académica y de conducción universitaria, así como en las normas relativas a la organización y funcionamiento académico, entre otras; hasta el momento no ha sido instalado puesto que los Consejos de Calidad y Social de la Institución, realizan el análisis y seguimiento de dichos temas como parte de sus funciones, motivo que ha contribuido a no realizar la instalación del Consejo Consultivo. </t>
+  </si>
+  <si>
+    <t>Secretaría Académica (UPP)</t>
   </si>
 </sst>
 </file>
@@ -217,31 +217,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +522,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +537,7 @@
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="77.7109375" customWidth="1"/>
+    <col min="11" max="11" width="51.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -549,38 +546,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -653,19 +650,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -702,31 +699,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="10">
-        <v>44105</v>
-      </c>
-      <c r="C8" s="10">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11" t="s">
+    <row r="8" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44298</v>
+      </c>
+      <c r="J8" s="3">
+        <v>44298</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="I8" s="10">
-        <v>44196</v>
-      </c>
-      <c r="J8" s="10">
-        <v>44196</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -740,7 +737,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D102">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
@@ -753,22 +750,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>

--- a/xlsx/a69_f46_bUPPachuca.xlsx
+++ b/xlsx/a69_f46_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,12 @@
   <definedNames>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -142,10 +147,10 @@
     <t>Opinión</t>
   </si>
   <si>
+    <t>Abogado General (UPP)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Conforme a lo establecido en Capítulo V del Decreto Vigente de la Universidad, relativo al Consejo Consultivo, este es un Órgano Colegiado con las funciones de asesorar al Rector en materia académica y de conducción universitaria, así como en las normas relativas a la organización y funcionamiento académico, entre otras; hasta el momento no ha sido instalado puesto que los Consejos de Calidad y Social de la Institución, realizan el análisis y seguimiento de dichos temas como parte de sus funciones, motivo que ha contribuido a no realizar la instalación del Consejo Consultivo. </t>
-  </si>
-  <si>
-    <t>Secretaría Académica (UPP)</t>
   </si>
 </sst>
 </file>
@@ -217,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -228,17 +233,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +548,7 @@
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.140625" customWidth="1"/>
+    <col min="11" max="11" width="77.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -546,38 +557,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -650,19 +661,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -699,31 +710,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44386</v>
+      </c>
+      <c r="J8" s="3">
+        <v>44386</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="I8" s="3">
-        <v>44298</v>
-      </c>
-      <c r="J8" s="3">
-        <v>44298</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -737,7 +748,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D102">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D23">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>

--- a/xlsx/a69_f46_bUPPachuca.xlsx
+++ b/xlsx/a69_f46_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,16 @@
   <definedNames>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -170,11 +176,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -222,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -233,23 +241,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +550,7 @@
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="77.7109375" customWidth="1"/>
+    <col min="11" max="11" width="85.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -557,38 +559,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -661,19 +663,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -710,30 +712,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I8" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J8" s="3">
-        <v>44386</v>
-      </c>
-      <c r="K8" s="10" t="s">
+        <v>44480</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -748,7 +750,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D23">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D90">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>

--- a/xlsx/a69_f46_bUPPachuca.xlsx
+++ b/xlsx/a69_f46_bUPPachuca.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\Vo. Bo. 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,18 +18,7 @@
   <definedNames>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -153,17 +142,17 @@
     <t>Opinión</t>
   </si>
   <si>
+    <t xml:space="preserve">Conforme a lo establecido en Capítulo V del Decreto Vigente de la Universidad, relativo al Consejo Consultivo, este es un Órgano Colegiado con las funciones de asesorar al Rector en materia académica y de conducción universitaria, así como en las normas relativas a la organización y funcionamiento académico, entre otras; hasta el momento no ha sido instalado puesto que los Consejos de Calidad y Social de la Institución, realizan el análisis y seguimiento de dichos temas como parte de sus funciones, motivo que ha contribuido a no realizar la instalación del Consejo Consultivo. </t>
+  </si>
+  <si>
     <t>Abogado General (UPP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conforme a lo establecido en Capítulo V del Decreto Vigente de la Universidad, relativo al Consejo Consultivo, este es un Órgano Colegiado con las funciones de asesorar al Rector en materia académica y de conducción universitaria, así como en las normas relativas a la organización y funcionamiento académico, entre otras; hasta el momento no ha sido instalado puesto que los Consejos de Calidad y Social de la Institución, realizan el análisis y seguimiento de dichos temas como parte de sus funciones, motivo que ha contribuido a no realizar la instalación del Consejo Consultivo. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -176,12 +165,16 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -203,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,6 +219,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -242,9 +246,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -252,6 +253,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +554,7 @@
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="85.42578125" customWidth="1"/>
+    <col min="11" max="11" width="77.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -559,38 +563,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -663,19 +667,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -712,31 +716,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44571</v>
+      </c>
+      <c r="J8" s="3">
+        <v>44571</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="I8" s="3">
-        <v>44480</v>
-      </c>
-      <c r="J8" s="3">
-        <v>44480</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +754,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D90">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D101">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>

--- a/xlsx/a69_f46_bUPPachuca.xlsx
+++ b/xlsx/a69_f46_bUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\Vo. Bo. 1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="15600" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -142,17 +137,17 @@
     <t>Opinión</t>
   </si>
   <si>
+    <t xml:space="preserve"> Secretaria Academica (UPP)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Conforme a lo establecido en Capítulo V del Decreto Vigente de la Universidad, relativo al Consejo Consultivo, este es un Órgano Colegiado con las funciones de asesorar al Rector en materia académica y de conducción universitaria, así como en las normas relativas a la organización y funcionamiento académico, entre otras; hasta el momento no ha sido instalado puesto que los Consejos de Calidad y Social de la Institución, realizan el análisis y seguimiento de dichos temas como parte de sus funciones, motivo que ha contribuido a no realizar la instalación del Consejo Consultivo. </t>
-  </si>
-  <si>
-    <t>Abogado General (UPP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -165,16 +160,12 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -220,21 +211,19 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -245,16 +234,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -538,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +546,7 @@
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="77.7109375" customWidth="1"/>
+    <col min="11" max="11" width="98.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -563,38 +555,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -667,19 +659,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -716,31 +708,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44659</v>
+      </c>
+      <c r="J8" s="3">
+        <v>44659</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="I8" s="3">
-        <v>44571</v>
-      </c>
-      <c r="J8" s="3">
-        <v>44571</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -754,12 +746,11 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D101">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f46_bUPPachuca.xlsx
+++ b/xlsx/a69_f46_bUPPachuca.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="15600" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -137,17 +142,17 @@
     <t>Opinión</t>
   </si>
   <si>
-    <t xml:space="preserve"> Secretaria Academica (UPP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conforme a lo establecido en Capítulo V del Decreto Vigente de la Universidad, relativo al Consejo Consultivo, este es un Órgano Colegiado con las funciones de asesorar al Rector en materia académica y de conducción universitaria, así como en las normas relativas a la organización y funcionamiento académico, entre otras; hasta el momento no ha sido instalado puesto que los Consejos de Calidad y Social de la Institución, realizan el análisis y seguimiento de dichos temas como parte de sus funciones, motivo que ha contribuido a no realizar la instalación del Consejo Consultivo. </t>
+    <t>Secretaria Academica (UPP)</t>
+  </si>
+  <si>
+    <t>La Universidad Politécnica de Pachuca, no tiene opiniones y recomendaciones del Consejo Consultivo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -167,6 +172,13 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -223,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -234,14 +246,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -276,39 +289,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,142 +400,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -530,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD175"/>
+    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +583,7 @@
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="98.28515625" customWidth="1"/>
+    <col min="11" max="11" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -555,38 +592,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -659,19 +696,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -708,30 +745,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J8" s="3">
-        <v>44659</v>
-      </c>
-      <c r="K8" s="7" t="s">
+        <v>44753</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -746,7 +783,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>

--- a/xlsx/a69_f46_bUPPachuca.xlsx
+++ b/xlsx/a69_f46_bUPPachuca.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B54FE141-82D7-4CAF-B251-755C43C3DB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -151,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -354,6 +355,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -389,6 +407,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -564,11 +599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +618,7 @@
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.5703125" customWidth="1"/>
+    <col min="11" max="11" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -750,10 +785,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -763,10 +798,10 @@
         <v>39</v>
       </c>
       <c r="I8" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J8" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>40</v>
@@ -783,7 +818,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
@@ -792,7 +827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/xlsx/a69_f46_bUPPachuca.xlsx
+++ b/xlsx/a69_f46_bUPPachuca.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B54FE141-82D7-4CAF-B251-755C43C3DB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB3AACE5-A642-4E49-9BBB-3492B5B9A0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -603,7 +603,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,10 +785,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -798,10 +798,10 @@
         <v>39</v>
       </c>
       <c r="I8" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="J8" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>40</v>

--- a/xlsx/a69_f46_bUPPachuca.xlsx
+++ b/xlsx/a69_f46_bUPPachuca.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2023\SIPOT\1er Trimestre 2023\Recepción de Información\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB3AACE5-A642-4E49-9BBB-3492B5B9A0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -143,7 +142,7 @@
     <t>Opinión</t>
   </si>
   <si>
-    <t>Secretaria Academica (UPP)</t>
+    <t xml:space="preserve"> Secretaria Academica (UPP)</t>
   </si>
   <si>
     <t>La Universidad Politécnica de Pachuca, no tiene opiniones y recomendaciones del Consejo Consultivo.</t>
@@ -152,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,7 +178,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -224,19 +222,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -247,20 +247,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -290,39 +283,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,23 +348,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -407,23 +383,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,175 +394,151 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +553,7 @@
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -627,38 +562,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -731,19 +666,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -780,30 +715,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I8" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="J8" s="3">
-        <v>44936</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>45026</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -818,7 +753,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
@@ -827,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/xlsx/a69_f46_bUPPachuca.xlsx
+++ b/xlsx/a69_f46_bUPPachuca.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2023\SIPOT\1er Trimestre 2023\Recepción de Información\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\SIPOT\Vo. Bo. Uno 2do Tri 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AFE4FB0-1D51-46FB-B8F9-99B81B2A3965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -145,14 +146,14 @@
     <t xml:space="preserve"> Secretaria Academica (UPP)</t>
   </si>
   <si>
-    <t>La Universidad Politécnica de Pachuca, no tiene opiniones y recomendaciones del Consejo Consultivo.</t>
+    <t>La Universidad Politécnica de Pachuca, no tiene Consejo Consultivo por que se encuentra en proceso de validación el nuevo Decreto de Creación.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -165,19 +166,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -198,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -221,40 +214,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,9 +256,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,39 +266,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,7 +333,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,7 +368,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,166 +377,190 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I3"/>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" customWidth="1"/>
+    <col min="11" max="11" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -562,38 +569,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -666,19 +673,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -715,30 +722,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2023</v>
       </c>
-      <c r="B8" s="3">
-        <v>44927</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45016</v>
+      <c r="B8" s="4">
+        <v>45017</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45107</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J8" s="3">
-        <v>45026</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="I8" s="4">
+        <v>45117</v>
+      </c>
+      <c r="J8" s="4">
+        <v>45117</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -753,16 +760,17 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D111" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
